--- a/forecast_summary_B08KWMXGQW.xlsx
+++ b/forecast_summary_B08KWMXGQW.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-0.07601954278782483</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07601954262653088</v>
+        <v>-0.07601954264697675</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-0.1541573115066455</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1541030637009694</v>
+        <v>-0.1541573113010598</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-0.1464797341312254</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.146259667262832</v>
+        <v>-0.1463606198093829</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-0.2409563702487696</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2403649816750967</v>
+        <v>-0.2405444726208745</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-0.5061962036713467</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5041442510642361</v>
+        <v>-0.5049386303679745</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.6096772440450331</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6065300620893795</v>
+        <v>-0.6075352940105797</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.1819080381627091</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1808567657629435</v>
+        <v>-0.1811281203217607</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>0.6143325560151559</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6173532042638477</v>
+        <v>0.6179564013224986</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>1.142489390448762</v>
       </c>
       <c r="D10" t="n">
-        <v>1.148716350327938</v>
+        <v>1.150084569103196</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>1.004059713933012</v>
       </c>
       <c r="D11" t="n">
-        <v>1.010266614665996</v>
+        <v>1.011896385452041</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>0.5105878667721923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5141025736021337</v>
+        <v>0.5149159593418023</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>0.2849895119206429</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2870676904667432</v>
+        <v>0.2875195135004583</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>0.4923046324742139</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4963290437083654</v>
+        <v>0.4968840716721747</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>0.6834355937240351</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6895303142868751</v>
+        <v>0.6899877347505089</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>0.4209448878960108</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4248888291390575</v>
+        <v>0.4252086198771104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-0.1553641895432491</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1535534062054369</v>
+        <v>-0.1539284447398073</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-0.532102787041047</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5257637998136685</v>
+        <v>-0.527083133445124</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-0.4603216607649867</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4545871992875869</v>
+        <v>-0.4557595671086638</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-0.1769141705410985</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1746367833850695</v>
+        <v>-0.1750487007680997</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.009896607450610948</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0097643013780819</v>
+        <v>-0.009787741748632645</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B450M DS3H V2</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
